--- a/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet.xlsx
+++ b/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R7f48aa6cfe454ada"/>
-    <x:sheet name="NewWorksheet" sheetId="2" r:id="Rc93d6b4b8a724a21"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R243ac593c01a4d34"/>
+    <x:sheet name="NewWorksheet" sheetId="2" r:id="R086a0d37f7c8407a"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet.xlsx
+++ b/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R243ac593c01a4d34"/>
-    <x:sheet name="NewWorksheet" sheetId="2" r:id="R086a0d37f7c8407a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R906edbf7d01e4f02"/>
+    <x:sheet name="NewWorksheet" sheetId="2" r:id="Re55d016d21074f50"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet.xlsx
+++ b/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R906edbf7d01e4f02"/>
-    <x:sheet name="NewWorksheet" sheetId="2" r:id="Re55d016d21074f50"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R3a860c5a6ef74426"/>
+    <x:sheet name="NewWorksheet" sheetId="2" r:id="Rf926a3737cba44f2"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet.xlsx
+++ b/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R3a860c5a6ef74426"/>
-    <x:sheet name="NewWorksheet" sheetId="2" r:id="Rf926a3737cba44f2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rbd28a1fb48e34ccd"/>
+    <x:sheet name="NewWorksheet" sheetId="2" r:id="Rf9f8f1942b1547bd"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet.xlsx
+++ b/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rbd28a1fb48e34ccd"/>
-    <x:sheet name="NewWorksheet" sheetId="2" r:id="Rf9f8f1942b1547bd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Re4d2d4af09564c8e"/>
+    <x:sheet name="NewWorksheet" sheetId="2" r:id="Rf2e77b2314704bf0"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet.xlsx
+++ b/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Workbook/spreadsheet.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Re4d2d4af09564c8e"/>
-    <x:sheet name="NewWorksheet" sheetId="2" r:id="Rf2e77b2314704bf0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R6a7a0e3ea8c44966"/>
+    <x:sheet name="NewWorksheet" sheetId="2" r:id="R93b9ee2ab7d44afc"/>
   </x:sheets>
 </x:workbook>
 </file>
